--- a/biology/Botanique/Édouard_Martell/Édouard_Martell.xlsx
+++ b/biology/Botanique/Édouard_Martell/Édouard_Martell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Martell</t>
+          <t>Édouard_Martell</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Martell est un homme politique français né le 17 février 1834 à Cognac (Charente) et décédé le 20 juillet 1920 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Martell</t>
+          <t>Édouard_Martell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du négociant Isaac-Théodore Martell et de Clémentine Guys (petite-fille de Pierre-Augustin Guys), neveu de Jean-Gabriel Martell, ancien député de la Charente, il participe à la gestion de la maison de cognac familiale. Il est maire de Cherves, où la famille possède un domaine, de 1865 à 1876 et de 1888 à 1920, conseiller général du canton de Cognac-Nord en 1871, il est aussi président de la Société d'agriculture de la Charente.
 En 1871, il est élu député de la Charente et siège à droite, s'inscrivant à la réunion Feray. Il est battu en 1876. Il retrouve un siège de sénateur de la Charente de 1890 à 1903 et de 1912 à 1920.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89douard_Martell</t>
+          <t>Édouard_Martell</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Édouard Martell », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition]
 « Édouard Martell », dans le Dictionnaire des parlementaires français (1889-1940), sous la direction de Jean Jolly, PUF, 1960 [détail de l’édition]</t>
